--- a/ressource_costs.xlsx
+++ b/ressource_costs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC533879-ED9F-495C-A6AD-928549B66FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785415B5-F577-45E9-B885-2BA706ED0738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coal" sheetId="1" r:id="rId1"/>
     <sheet name="gas" sheetId="2" r:id="rId2"/>
-    <sheet name="uranium" sheetId="4" r:id="rId3"/>
-    <sheet name="uranium_data" sheetId="3" r:id="rId4"/>
+    <sheet name="Gas price development" sheetId="5" r:id="rId3"/>
+    <sheet name="uranium" sheetId="4" r:id="rId4"/>
+    <sheet name="uranium_data" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Coal_costs</t>
   </si>
@@ -93,6 +94,30 @@
   </si>
   <si>
     <t>Electricity Price [Euro/MWh]</t>
+  </si>
+  <si>
+    <t>Uranium_cost</t>
+  </si>
+  <si>
+    <t>europa</t>
+  </si>
+  <si>
+    <t>japan</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>own value</t>
+  </si>
+  <si>
+    <t>Prozentuale steigung</t>
+  </si>
+  <si>
+    <t>IEA</t>
   </si>
 </sst>
 </file>
@@ -164,6 +189,987 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Gas price development</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gas price development'!$G$2:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>30.463088072718339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.198403991714986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.933719910711638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.669035829708278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.404351748704933</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.139667667701588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.874983586698235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.61029950569489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.345615424691537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.080931343688192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.816247262684847</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.83668568088428</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.857124099083713</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.877562517283145</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.898000935482578</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.918439353682011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43.938877771881451</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.959316190080884</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.979754608280317</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.000193026479756</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48.020631444679189</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.041069862878622</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.061508281078055</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51.081946699277488</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.102385117476921</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53.122823535676339</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54.143261953875772</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.163700372075219</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.184138790274652</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57.204577208474085</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>58.225015626673517</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59.24545404487295</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60.26589246307239</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.286330881271823</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62.306769299471256</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63.327207717670696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CCF-43A7-805A-8ACC5BB4FAE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1017379776"/>
+        <c:axId val="510980448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1017379776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510980448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="510980448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1017379776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B8554B-93F0-A285-3039-1740E724780C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,10 +1438,13 @@
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -509,147 +1518,147 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>350</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>155</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
@@ -664,474 +1673,1528 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29677ED-AF09-4756-B663-A7350371A96A}">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>29.357572779756786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>27.269377226384965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>29.603242844859352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>32.428448593538874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>33.411128853949144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>31.691438398231174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>30.463088072718339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>24.567006510256725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>25.05834664046186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>28.252057486795234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>23.584326249846455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>20.63628546861565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>37.341849895590222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>35.61029950569489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>36.345615424691537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>37.080931343688192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>37.816247262684847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>38.83668568088428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>39.857124099083713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>40.877562517283145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>41.898000935482578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>42.918439353682011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>43.938877771881451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44.959316190080884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>45.979754608280317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>47.000193026479756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>48.020631444679189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>49.041069862878622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>50.061508281078055</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>51.081946699277488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>52.102385117476921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>53.122823535676339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>54.143261953875772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>55.163700372075219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>56.184138790274652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>57.204577208474085</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>58.225015626673517</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>59.24545404487295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>60.26589246307239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>61.286330881271823</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>62.306769299471256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>63.327207717670696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE1701A-DC9D-4890-BAD0-530EE1CFB2DA}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>10.3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>6.7666666666666666</v>
+      </c>
+      <c r="G2" s="3">
+        <v>30.463088072718339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3">
+        <v>7.22</v>
+      </c>
+      <c r="C3">
+        <v>10.4</v>
+      </c>
+      <c r="D3">
+        <v>3.17</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E37" si="0">AVERAGE(B3:D3)</f>
+        <v>6.93</v>
+      </c>
+      <c r="F3">
+        <f>(E3-E2)/E2</f>
+        <v>2.4137931034482727E-2</v>
+      </c>
+      <c r="G3">
+        <f>G2+G2*F3</f>
+        <v>31.198403991714986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>7.44</v>
+      </c>
+      <c r="C4">
+        <v>10.5</v>
+      </c>
+      <c r="D4">
+        <v>3.34</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>7.0933333333333337</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F37" si="1">(E4-E3)/E3</f>
+        <v>2.3569023569023666E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G37" si="2">G3+G3*F4</f>
+        <v>31.933719910711638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <v>7.66</v>
+      </c>
+      <c r="C5">
+        <v>10.6</v>
+      </c>
+      <c r="D5">
+        <v>3.51</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>7.256666666666665</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.3026315789473402E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>32.669035829708278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6">
+        <v>7.88</v>
+      </c>
+      <c r="C6">
+        <v>10.7</v>
+      </c>
+      <c r="D6">
+        <v>3.68</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>7.419999999999999</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2.2508038585209101E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>33.404351748704933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7">
+        <v>8.1</v>
+      </c>
+      <c r="C7">
+        <v>10.8</v>
+      </c>
+      <c r="D7">
+        <v>3.85</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>7.583333333333333</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2.2012578616352294E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>34.139667667701588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8">
+        <v>8.32</v>
+      </c>
+      <c r="C8">
+        <v>10.9</v>
+      </c>
+      <c r="D8">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>7.7466666666666661</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2.153846153846151E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>34.874983586698235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>7.91</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>2.1084337349397679E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>35.61029950569489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10">
+        <v>8.76</v>
+      </c>
+      <c r="C10">
+        <v>11.1</v>
+      </c>
+      <c r="D10">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>8.0733333333333324</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2.0648967551622276E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>36.345615424691537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2024</v>
+      </c>
+      <c r="B11">
+        <v>8.98</v>
+      </c>
+      <c r="C11">
+        <v>11.2</v>
+      </c>
+      <c r="D11">
+        <v>4.53</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8.2366666666666664</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2.0231213872832454E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>37.080931343688192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2025</v>
+      </c>
+      <c r="B12">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C12">
+        <v>11.3</v>
+      </c>
+      <c r="D12">
+        <v>4.7</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1.9830028328611981E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>37.816247262684847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2026</v>
+      </c>
+      <c r="B13">
+        <f>B12+0.253</f>
+        <v>9.4529999999999994</v>
+      </c>
+      <c r="C13">
+        <f>C12+0.207</f>
+        <v>11.507000000000001</v>
+      </c>
+      <c r="D13">
+        <f>D12+0.22</f>
+        <v>4.92</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8.6266666666666669</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2.6984126984126972E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>38.83668568088428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2027</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B26" si="3">B13+0.253</f>
+        <v>9.7059999999999995</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C25" si="4">C13+0.207</f>
+        <v>11.714000000000002</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D26" si="5">D13+0.22</f>
+        <v>5.14</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>8.8533333333333335</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2.6275115919629045E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>39.857124099083713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2028</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>9.9589999999999996</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>11.921000000000003</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>5.3599999999999994</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>9.08</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2.5602409638554206E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>40.877562517283145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2029</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>10.212</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>12.128000000000004</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>5.5799999999999992</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>9.3066666666666666</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.4963289280469887E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>41.898000935482578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2030</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>10.465</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>12.335000000000004</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>5.7999999999999989</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>9.5333333333333332</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2.4355300859598843E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>42.918439353682011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2031</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="3"/>
+        <v>10.718</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>12.542000000000005</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>6.0199999999999987</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>9.7600000000000016</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>2.3776223776223952E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>43.938877771881451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2032</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="3"/>
+        <v>10.971</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>12.749000000000006</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>6.2399999999999984</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>9.9866666666666681</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>2.3224043715846982E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>44.959316190080884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2033</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>11.224</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>12.956000000000007</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>6.4599999999999982</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>10.213333333333335</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2.2696929238985301E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>45.979754608280317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2034</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>11.477</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>13.163000000000007</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>6.6799999999999979</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>10.440000000000003</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>2.2193211488250816E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>47.000193026479756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2035</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>11.73</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>13.370000000000008</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>6.8999999999999977</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>10.66666666666667</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>2.1711366538952729E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>48.020631444679189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2036</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>11.983000000000001</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>13.577000000000009</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>7.1199999999999974</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>10.893333333333336</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>2.1249999999999984E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>49.041069862878622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2037</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>12.236000000000001</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>13.78400000000001</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>7.3399999999999972</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>11.120000000000003</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2.0807833537331687E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>50.061508281078055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2038</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>12.489000000000001</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>13.99100000000001</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>7.5599999999999969</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>11.346666666666669</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>2.0383693045563537E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>51.081946699277488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2039</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>12.742000000000001</v>
+      </c>
+      <c r="C26">
+        <f>C25+0.207</f>
+        <v>14.198000000000011</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>7.7799999999999967</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>11.573333333333336</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1.9976498237367791E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>52.102385117476921</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2040</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>14.4</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>11.799999999999999</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1.9585253456220877E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>53.122823535676339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2041</v>
+      </c>
+      <c r="B28">
+        <f>B27+0.253</f>
+        <v>13.253</v>
+      </c>
+      <c r="C28">
+        <f>C27+0.207</f>
+        <v>14.607000000000001</v>
+      </c>
+      <c r="D28">
+        <f>D27+0.22</f>
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>12.026666666666666</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1.9209039548022593E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>54.143261953875772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2042</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:B37" si="6">B28+0.253</f>
+        <v>13.506</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C37" si="7">C28+0.207</f>
+        <v>14.814000000000002</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D37" si="8">D28+0.22</f>
+        <v>8.4400000000000013</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>12.253333333333336</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1.884700665188499E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>55.163700372075219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2043</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="6"/>
+        <v>13.759</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="7"/>
+        <v>15.021000000000003</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="8"/>
+        <v>8.6600000000000019</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>12.480000000000002</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1.8498367791077247E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>56.184138790274652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2044</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="6"/>
+        <v>14.012</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="7"/>
+        <v>15.228000000000003</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="8"/>
+        <v>8.8800000000000026</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>12.706666666666669</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>1.816239316239315E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>57.204577208474085</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2045</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="6"/>
+        <v>14.265000000000001</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="7"/>
+        <v>15.435000000000004</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="8"/>
+        <v>9.1000000000000032</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>12.933333333333335</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>1.7838405036726117E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>58.225015626673517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2046</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="6"/>
+        <v>14.518000000000001</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="7"/>
+        <v>15.642000000000005</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="8"/>
+        <v>9.3200000000000038</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>13.160000000000002</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>1.7525773195876278E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>59.24545404487295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2047</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="6"/>
+        <v>14.771000000000001</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="7"/>
+        <v>15.849000000000006</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="8"/>
+        <v>9.5400000000000045</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>13.38666666666667</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>1.7223910840932243E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>60.26589246307239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2048</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="6"/>
+        <v>15.024000000000001</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="7"/>
+        <v>16.056000000000004</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="8"/>
+        <v>9.7600000000000051</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>13.613333333333337</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>1.693227091633465E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>61.286330881271823</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2049</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="6"/>
+        <v>15.277000000000001</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="7"/>
+        <v>16.263000000000005</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="8"/>
+        <v>9.9800000000000058</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>13.840000000000003</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>1.6650342801175309E-2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>62.306769299471256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2050</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="6"/>
+        <v>15.530000000000001</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="7"/>
+        <v>16.470000000000006</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="8"/>
+        <v>10.200000000000006</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>14.066666666666672</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>1.6377649325626322E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>63.327207717670696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC0B705-8637-439E-A870-54D286F9AFBD}">
+  <dimension ref="A1:A47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2.5</v>
+      <c r="A2" s="3">
+        <v>55.066079295154182</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3.1</v>
+      <c r="A3" s="3">
+        <v>70.48458149779735</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="3">
+        <v>96.916299559471369</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.2000000000000002</v>
+      <c r="A5" s="3">
+        <v>94.713656387665196</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2.9</v>
+      <c r="A6" s="3">
+        <v>70.48458149779735</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3.1</v>
+      <c r="A7" s="3">
+        <v>41.85022026431718</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2.4</v>
+      <c r="A8" s="3">
+        <v>77.092511013215855</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2.2000000000000002</v>
+      <c r="A9" s="3">
+        <v>52.863436123348016</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2.5</v>
+      <c r="A10" s="3">
+        <v>39.647577092511014</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2.2000000000000002</v>
+      <c r="A11" s="3">
+        <v>41.85022026431718</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
+      <c r="A12" s="3">
+        <v>46.255506607929512</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.4</v>
+      <c r="A13" s="3">
+        <v>59.471365638766521</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2.2000000000000002</v>
+      <c r="A14" s="3">
+        <v>59.471365638766521</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>8</v>
+      <c r="A15" s="3">
+        <v>107.92951541850221</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2.1</v>
+      <c r="A16" s="3">
+        <v>110.13215859030836</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2</v>
+      <c r="A17" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2.5</v>
+      <c r="A18" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2.2000000000000002</v>
+      <c r="A19" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2</v>
+      <c r="A20" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2.4</v>
+      <c r="A21" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2.7</v>
+      <c r="A22" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2.9</v>
+      <c r="A23" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2.6</v>
+      <c r="A24" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2.2000000000000002</v>
+      <c r="A25" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2.6</v>
+      <c r="A26" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2.6</v>
+      <c r="A27" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2.6</v>
+      <c r="A28" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2.6</v>
+      <c r="A29" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2.6</v>
+      <c r="A30" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2.6</v>
+      <c r="A31" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2.6</v>
+      <c r="A32" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2.6</v>
+      <c r="A33" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2.6</v>
+      <c r="A34" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2.6</v>
+      <c r="A35" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2.6</v>
+      <c r="A36" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2.6</v>
+      <c r="A37" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2.6</v>
+      <c r="A38" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2.6</v>
+      <c r="A39" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2.6</v>
+      <c r="A40" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2.6</v>
+      <c r="A41" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2.6</v>
+      <c r="A42" s="3">
+        <v>68.28</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2.6</v>
-      </c>
+      <c r="A43" s="3">
+        <v>68.28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC0B705-8637-439E-A870-54D286F9AFBD}">
-  <dimension ref="A1:A46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>55.066079295154182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>70.48458149779735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>96.916299559471369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>94.713656387665196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>70.48458149779735</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>41.85022026431718</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>77.092511013215855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>52.863436123348016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>39.647577092511014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>41.85022026431718</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>46.255506607929512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>59.471365638766521</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>59.471365638766521</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>107.92951541850221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>110.13215859030836</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>68.28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4652FD31-830A-41CF-B007-334ACCF3B1B0}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A44"/>
     </sheetView>
   </sheetViews>

--- a/ressource_costs.xlsx
+++ b/ressource_costs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tschell\Documents\GitHub\ABM_electricity_sector_Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785415B5-F577-45E9-B885-2BA706ED0738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="coal" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="uranium" sheetId="4" r:id="rId4"/>
     <sheet name="uranium_data" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -123,12 +122,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,7 +175,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -194,7 +193,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -533,6 +532,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -540,7 +540,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1434,234 +1433,234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="1"/>
     </row>
   </sheetData>
@@ -1670,229 +1669,229 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29677ED-AF09-4756-B663-A7350371A96A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="3">
         <v>29.357572779756786</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="3">
         <v>27.269377226384965</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="3">
         <v>29.603242844859352</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="3">
         <v>32.428448593538874</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="3">
         <v>33.411128853949144</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="3">
         <v>31.691438398231174</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="3">
         <v>30.463088072718339</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="3">
         <v>24.567006510256725</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="3">
         <v>25.05834664046186</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="3">
         <v>28.252057486795234</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="3">
         <v>23.584326249846455</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="3">
         <v>20.63628546861565</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="3">
         <v>37.341849895590222</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="3">
         <v>35.61029950569489</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="3">
         <v>36.345615424691537</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="3">
         <v>37.080931343688192</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="3">
         <v>37.816247262684847</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="3">
         <v>38.83668568088428</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="3">
         <v>39.857124099083713</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="3">
         <v>40.877562517283145</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="3">
         <v>41.898000935482578</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="3">
         <v>42.918439353682011</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="3">
         <v>43.938877771881451</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="3">
         <v>44.959316190080884</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="3">
         <v>45.979754608280317</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="3">
         <v>47.000193026479756</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="3">
         <v>48.020631444679189</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="3">
         <v>49.041069862878622</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="3">
         <v>50.061508281078055</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="3">
         <v>51.081946699277488</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="3">
         <v>52.102385117476921</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="3">
         <v>53.122823535676339</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="3">
         <v>54.143261953875772</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="3">
         <v>55.163700372075219</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="3">
         <v>56.184138790274652</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="3">
         <v>57.204577208474085</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="3">
         <v>58.225015626673517</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="3">
         <v>59.24545404487295</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="3">
         <v>60.26589246307239</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="3">
         <v>61.286330881271823</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="3">
         <v>62.306769299471256</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="3">
         <v>63.327207717670696</v>
       </c>
@@ -1903,20 +1902,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE1701A-DC9D-4890-BAD0-530EE1CFB2DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -1960,7 +1959,7 @@
         <v>30.463088072718339</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -1986,7 +1985,7 @@
         <v>31.198403991714986</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -2012,7 +2011,7 @@
         <v>31.933719910711638</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -2038,7 +2037,7 @@
         <v>32.669035829708278</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -2064,7 +2063,7 @@
         <v>33.404351748704933</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -2090,7 +2089,7 @@
         <v>34.139667667701588</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -2116,7 +2115,7 @@
         <v>34.874983586698235</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>35.61029950569489</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>36.345615424691537</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -2194,7 +2193,7 @@
         <v>37.080931343688192</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>2025</v>
       </c>
@@ -2220,7 +2219,7 @@
         <v>37.816247262684847</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>2026</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>38.83668568088428</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>2027</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>39.857124099083713</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>2028</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>40.877562517283145</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>2029</v>
       </c>
@@ -2336,7 +2335,7 @@
         <v>41.898000935482578</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>2030</v>
       </c>
@@ -2365,7 +2364,7 @@
         <v>42.918439353682011</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>2031</v>
       </c>
@@ -2394,7 +2393,7 @@
         <v>43.938877771881451</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>2032</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>44.959316190080884</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>2033</v>
       </c>
@@ -2452,7 +2451,7 @@
         <v>45.979754608280317</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>2034</v>
       </c>
@@ -2481,7 +2480,7 @@
         <v>47.000193026479756</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2035</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>48.020631444679189</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>2036</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>49.041069862878622</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>2037</v>
       </c>
@@ -2568,7 +2567,7 @@
         <v>50.061508281078055</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>2038</v>
       </c>
@@ -2597,7 +2596,7 @@
         <v>51.081946699277488</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>2039</v>
       </c>
@@ -2626,7 +2625,7 @@
         <v>52.102385117476921</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>2040</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>53.122823535676339</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>2041</v>
       </c>
@@ -2681,7 +2680,7 @@
         <v>54.143261953875772</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>2042</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>55.163700372075219</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>2043</v>
       </c>
@@ -2739,7 +2738,7 @@
         <v>56.184138790274652</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2044</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>57.204577208474085</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>2045</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>58.225015626673517</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>2046</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>59.24545404487295</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>2047</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>60.26589246307239</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>2048</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>61.286330881271823</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>2049</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>62.306769299471256</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>2050</v>
       </c>
@@ -2949,240 +2948,240 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC0B705-8637-439E-A870-54D286F9AFBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="3">
         <v>55.066079295154182</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="3">
         <v>70.48458149779735</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="3">
         <v>96.916299559471369</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="3">
         <v>94.713656387665196</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="3">
         <v>70.48458149779735</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="3">
         <v>41.85022026431718</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="3">
         <v>77.092511013215855</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="3">
         <v>52.863436123348016</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="3">
         <v>39.647577092511014</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="3">
         <v>41.85022026431718</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="3">
         <v>46.255506607929512</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="3">
         <v>59.471365638766521</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="3">
         <v>59.471365638766521</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="3">
         <v>107.92951541850221</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="3">
         <v>110.13215859030836</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="3">
         <v>68.28</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="3"/>
     </row>
   </sheetData>
@@ -3191,25 +3190,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4652FD31-830A-41CF-B007-334ACCF3B1B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" customWidth="1"/>
+    <col min="6" max="6" width="40.81640625" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="48" customHeight="1">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -3272,7 +3271,7 @@
         <v>4.5186891825746454</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -3301,7 +3300,7 @@
         <v>4.8998688203622125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -3330,7 +3329,7 @@
         <v>5.553319627998043</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -3356,7 +3355,7 @@
         <v>5.4988653940283898</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>4.8998688203622125</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -3408,7 +3407,7 @@
         <v>4.1919637787567305</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -3434,7 +3433,7 @@
         <v>5.0632315222711695</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -3460,7 +3459,7 @@
         <v>4.464234948604993</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -3486,7 +3485,7 @@
         <v>4.1375095447870773</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -3512,7 +3511,7 @@
         <v>4.1919637787567305</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>4.3008722466960361</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -3558,7 +3557,7 @@
         <v>4.62759765051395</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -3581,7 +3580,7 @@
         <v>4.62759765051395</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -3604,7 +3603,7 @@
         <v>5.8255907978463055</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -3627,137 +3626,137 @@
         <v>5.8800450318159569</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2024</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2025</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2026</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2027</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>2028</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2029</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>2030</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>2031</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2032</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>2033</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>2034</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2035</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2036</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>2037</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>2038</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>2039</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>2040</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>2041</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>2042</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>2043</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>2044</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>2045</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>2046</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>2047</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>2048</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>2049</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44">
         <v>2050</v>
       </c>

--- a/ressource_costs.xlsx
+++ b/ressource_costs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="coal" sheetId="1" r:id="rId1"/>
@@ -1436,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -1451,68 +1451,68 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1">
-        <v>40</v>
+      <c r="A2">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1">
-        <v>50</v>
+      <c r="A3">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1">
-        <v>50</v>
+      <c r="A4">
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1">
-        <v>45</v>
+      <c r="A5">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1">
-        <v>45</v>
+      <c r="A6">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1">
-        <v>45</v>
+      <c r="A7">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1">
-        <v>40</v>
+      <c r="A8">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1">
-        <v>35</v>
+      <c r="A9">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1">
-        <v>50</v>
+      <c r="A10">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1">
-        <v>55</v>
+      <c r="A11">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1">
-        <v>50</v>
+      <c r="A12">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1">
-        <v>40</v>
+      <c r="A13">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1">
-        <v>100</v>
+      <c r="A14">
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -2951,8 +2951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -2963,213 +2963,242 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3">
-        <v>55.066079295154182</v>
+      <c r="A2">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3">
-        <v>70.48458149779735</v>
+      <c r="A3">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3">
-        <v>96.916299559471369</v>
+      <c r="A4">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3">
-        <v>94.713656387665196</v>
+      <c r="A5">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3">
-        <v>70.48458149779735</v>
+      <c r="A6">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3">
-        <v>41.85022026431718</v>
+      <c r="A7">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3">
-        <v>77.092511013215855</v>
+      <c r="A8">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3">
-        <v>52.863436123348016</v>
+      <c r="A9">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3">
-        <v>39.647577092511014</v>
+      <c r="A10">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3">
-        <v>41.85022026431718</v>
+      <c r="A11">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3">
-        <v>46.255506607929512</v>
+      <c r="A12">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3">
-        <v>59.471365638766521</v>
+      <c r="A13">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3">
-        <v>59.471365638766521</v>
+      <c r="A14">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3">
-        <v>107.92951541850221</v>
+        <f>AVERAGE($A$2:$A$14)</f>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3">
-        <v>110.13215859030836</v>
+        <f t="shared" ref="A16:A43" si="0">AVERAGE($A$2:$A$14)</f>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3">
-        <v>68.28</v>
+        <f t="shared" si="0"/>
+        <v>45.230769230769234</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -3194,7 +3223,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A44"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
